--- a/statistics/HistoricalDistanceData/historical_distance/Q60519467-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q60519467-en.xlsx
@@ -31,25 +31,49 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Elizabeth Warren Formally Announces 2020 Presidential Bid in Lawrence, Mass.</t>
+  </si>
+  <si>
+    <t>Presidential Ratings</t>
+  </si>
+  <si>
+    <t>Polls 2020-11-02 (larger states)</t>
+  </si>
+  <si>
+    <t>Nevada and South Carolina GOP cancel 2020 presidential nominating contests</t>
+  </si>
+  <si>
     <t>Roanoke College Poll: Virginians prefer all Democrats to Trump but many Dems underwater on favorability</t>
   </si>
   <si>
+    <t>2020 President - Sabato's Crystal Ball</t>
+  </si>
+  <si>
     <t>Roanoke College Poll: Opinions of Virginians on politics in May 2020</t>
   </si>
   <si>
     <t>Republican Party of Virginia reschedules 'unassembled' convention for August</t>
   </si>
   <si>
+    <t>Roanoke College Poll: Virginia political opinions in August 2020</t>
+  </si>
+  <si>
+    <t>Oct. 13-19, 2020, Washington Post-Schar School poll of Virginia voters</t>
+  </si>
+  <si>
+    <t>Virginia: Election Tools, Deadlines, Dates, Rules, and Links</t>
+  </si>
+  <si>
+    <t>Polls 2020-10-28</t>
+  </si>
+  <si>
     <t>September 24 Virginia General Election - Part 1</t>
   </si>
   <si>
-    <t>Elizabeth Warren Formally Announces 2020 Presidential Bid in Lawrence, Mass.</t>
-  </si>
-  <si>
-    <t>Oct. 13-19, 2020, Washington Post-Schar School poll of Virginia voters</t>
-  </si>
-  <si>
-    <t>Polls 2020-11-02 (larger states)</t>
+    <t>Extensive New Battleground Polling Shows Biden Gaining Ground</t>
+  </si>
+  <si>
+    <t>2020 November General</t>
   </si>
   <si>
     <t>Voting &amp; Elections Toolkits</t>
@@ -58,106 +82,82 @@
     <t>2020 Election Forecast</t>
   </si>
   <si>
-    <t>Nevada and South Carolina GOP cancel 2020 presidential nominating contests</t>
-  </si>
-  <si>
-    <t>Extensive New Battleground Polling Shows Biden Gaining Ground</t>
-  </si>
-  <si>
-    <t>Roanoke College Poll: Virginia political opinions in August 2020</t>
-  </si>
-  <si>
-    <t>Virginia: Election Tools, Deadlines, Dates, Rules, and Links</t>
-  </si>
-  <si>
-    <t>Presidential Ratings</t>
-  </si>
-  <si>
-    <t>Polls 2020-10-28</t>
-  </si>
-  <si>
-    <t>2020 November General</t>
-  </si>
-  <si>
-    <t>2020 President - Sabato's Crystal Ball</t>
+    <t>2019-02-09T14:00:04UTC</t>
   </si>
   <si>
     <t>1-01-01T00:00:00UTC</t>
   </si>
   <si>
+    <t>2019-09-07T18:09:00UTC</t>
+  </si>
+  <si>
     <t>2020-06-30T14:45:00UTC</t>
   </si>
   <si>
+    <t>2020-10-28T00:00:00UTC</t>
+  </si>
+  <si>
     <t>2020-09-24T00:00:00UTC</t>
   </si>
   <si>
-    <t>2019-02-09T14:00:04UTC</t>
+    <t>2020-07-27T00:00:00UTC</t>
   </si>
   <si>
     <t>2020-08-12T06:30:00UTC</t>
   </si>
   <si>
-    <t>2019-09-07T18:09:00UTC</t>
-  </si>
-  <si>
-    <t>2020-07-27T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2020-10-28T00:00:00UTC</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
+    <t>https://www.nytimes.com/2019/02/09/us/politics/elizabeth-warren-2020.html</t>
+  </si>
+  <si>
+    <t>https://insideelections.com/ratings/president</t>
+  </si>
+  <si>
+    <t>https://www.swayable.com/polls/2020-11-02-large.html</t>
+  </si>
+  <si>
+    <t>https://abcnews.go.com/Politics/trump-gop-canceling-gop-primaries-caucuses/story?id=65436462</t>
+  </si>
+  <si>
     <t>https://www.roanoke.edu/about/news/rc_poll_news_politics_feb_2020</t>
   </si>
   <si>
+    <t>http://centerforpolitics.org/crystalball/2020-president/</t>
+  </si>
+  <si>
     <t>https://www.roanoke.edu/about/news/rc_poll_politics_may_2020</t>
   </si>
   <si>
     <t>https://www.richmond.com/news/virginia/republican-party-of-virginia-reschedules-unassembled-convention-for-august/article_8a1bf303-910b-5a7c-bbc3-eeb6c7f45ac3.html</t>
   </si>
   <si>
+    <t>https://www.roanoke.edu/about/news/rc_poll_politics_aug_2020</t>
+  </si>
+  <si>
+    <t>https://www.washingtonpost.com/context/oct-13-19-2020-washington-post-schar-school-poll-of-virginia-voters/2be60bb5-dff2-4440-a7c4-af4e42a86c88/</t>
+  </si>
+  <si>
+    <t>https://www.vote.org/state/virginia/</t>
+  </si>
+  <si>
+    <t>https://www.swayable.com/polls/2020-10-28.html</t>
+  </si>
+  <si>
     <t>https://cnu.edu/wasoncenter/surveys/2020-09-24/</t>
   </si>
   <si>
-    <t>https://www.nytimes.com/2019/02/09/us/politics/elizabeth-warren-2020.html</t>
-  </si>
-  <si>
-    <t>https://www.washingtonpost.com/context/oct-13-19-2020-washington-post-schar-school-poll-of-virginia-voters/2be60bb5-dff2-4440-a7c4-af4e42a86c88/</t>
-  </si>
-  <si>
-    <t>https://www.swayable.com/polls/2020-11-02-large.html</t>
+    <t>https://morningconsult.com/form/july-presidential-battleground-state-polling/</t>
+  </si>
+  <si>
+    <t>https://results.elections.virginia.gov/vaelections/2020%20November%20General/Site/Presidential.html</t>
   </si>
   <si>
     <t>https://godort.libguides.com/votingtoolkit/texas</t>
   </si>
   <si>
     <t>https://projects.fivethirtyeight.com/2020-election-forecast/</t>
-  </si>
-  <si>
-    <t>https://abcnews.go.com/Politics/trump-gop-canceling-gop-primaries-caucuses/story?id=65436462</t>
-  </si>
-  <si>
-    <t>https://morningconsult.com/form/july-presidential-battleground-state-polling/</t>
-  </si>
-  <si>
-    <t>https://www.roanoke.edu/about/news/rc_poll_politics_aug_2020</t>
-  </si>
-  <si>
-    <t>https://www.vote.org/state/virginia/</t>
-  </si>
-  <si>
-    <t>https://insideelections.com/ratings/president</t>
-  </si>
-  <si>
-    <t>https://www.swayable.com/polls/2020-10-28.html</t>
-  </si>
-  <si>
-    <t>https://results.elections.virginia.gov/vaelections/2020%20November%20General/Site/Presidential.html</t>
-  </si>
-  <si>
-    <t>http://centerforpolitics.org/crystalball/2020-president/</t>
   </si>
 </sst>
 </file>
@@ -573,7 +573,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -624,7 +624,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
@@ -641,7 +641,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
@@ -658,7 +658,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>30</v>
@@ -675,7 +675,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
@@ -692,7 +692,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
@@ -709,7 +709,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>30</v>
@@ -726,7 +726,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
         <v>30</v>
@@ -743,7 +743,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>30</v>
@@ -760,7 +760,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>30</v>
@@ -777,7 +777,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -794,7 +794,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
         <v>30</v>
@@ -811,7 +811,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
         <v>30</v>
@@ -828,7 +828,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
